--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3885659.665174314</v>
+        <v>3883283.038226948</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.1175458707144</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8165095851519739</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>11.00425336397695</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.6532283794938</v>
       </c>
       <c r="H5" t="n">
-        <v>114.5059581839116</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.24924571897655</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>90.69811547110022</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>41.00930247648726</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>362.4086526667372</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.16463037378315</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.9345014072213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.7217947496369</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7217947496369</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>474.7217947496369</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E2" t="n">
-        <v>474.7217947496369</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>63.73588996002934</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>52.07154372472228</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>52.07154372472228</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>861.3216348137587</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4395,37 +4395,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.2683391907243</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2683391907243</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>525.1516997783885</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>377.2386061959954</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>230.3486586980851</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>62.36219400636367</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269232</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.050469232272</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>896.0609183342544</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.2683391907243</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1768.949738926589</v>
+        <v>864.86112672545</v>
       </c>
       <c r="C5" t="n">
-        <v>1399.987221986177</v>
+        <v>864.86112672545</v>
       </c>
       <c r="D5" t="n">
-        <v>1041.721523379427</v>
+        <v>864.86112672545</v>
       </c>
       <c r="E5" t="n">
-        <v>655.9332707811825</v>
+        <v>479.0728741272058</v>
       </c>
       <c r="F5" t="n">
-        <v>244.9473659915749</v>
+        <v>472.1273733780023</v>
       </c>
       <c r="G5" t="n">
-        <v>233.2830197562679</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923563</v>
@@ -4583,34 +4583,34 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>1977.695380320766</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926589</v>
+        <v>1624.926725050652</v>
       </c>
       <c r="X5" t="n">
-        <v>1768.949738926589</v>
+        <v>1251.460966789572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1768.949738926589</v>
+        <v>1251.460966789572</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1565.661695681273</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082458</v>
+        <v>359.6292930162437</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>359.6292930162437</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>209.5126536039079</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>61.5995600215148</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.831862022881</v>
+        <v>1244.744376093918</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.147373816994</v>
+        <v>990.0598878880309</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.730203780033</v>
+        <v>990.0598878880309</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820156</v>
+        <v>762.0703369900135</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384855</v>
+        <v>541.2777578464834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1214.090290083872</v>
+        <v>904.882036118825</v>
       </c>
       <c r="C8" t="n">
-        <v>1214.090290083872</v>
+        <v>535.9195191784133</v>
       </c>
       <c r="D8" t="n">
-        <v>1214.090290083872</v>
+        <v>177.6538205716628</v>
       </c>
       <c r="E8" t="n">
-        <v>828.302037485628</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>417.3161326960205</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>1291.481876182947</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059684</v>
+        <v>1291.481876182947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1214.090290083872</v>
+        <v>1291.481876182947</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>732.3487252516925</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>504.3591743536751</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>283.566595210145</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5033,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,13 +5419,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,49 +6224,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.03064962107925</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601762</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019043</v>
+        <v>305.1601501039161</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179986</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515139</v>
+        <v>255.8421700460934</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632247.9983748902</v>
+        <v>632247.9983748901</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632247.9983748903</v>
+        <v>632247.9983748901</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176769</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719705</v>
+      </c>
+      <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.36846171968</v>
-      </c>
       <c r="G4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719688</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719652</v>
+        <v>7507.368461719679</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719618</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>7507.36846171969</v>
       </c>
-      <c r="N4" t="n">
-        <v>7507.368461719667</v>
-      </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-540287.693944832</v>
+        <v>-540287.6939448325</v>
       </c>
       <c r="C6" t="n">
-        <v>574464.0896310874</v>
+        <v>574464.0896310873</v>
       </c>
       <c r="D6" t="n">
-        <v>574464.0896310874</v>
+        <v>574464.0896310878</v>
       </c>
       <c r="E6" t="n">
-        <v>170852.5947875833</v>
+        <v>170817.8568621475</v>
       </c>
       <c r="F6" t="n">
-        <v>678338.0364121289</v>
+        <v>678303.2984866934</v>
       </c>
       <c r="G6" t="n">
-        <v>678338.0364121288</v>
+        <v>678303.2984866932</v>
       </c>
       <c r="H6" t="n">
-        <v>678338.0364121291</v>
+        <v>678303.2984866932</v>
       </c>
       <c r="I6" t="n">
-        <v>678338.0364121292</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="J6" t="n">
-        <v>510732.8586021463</v>
+        <v>510698.120676711</v>
       </c>
       <c r="K6" t="n">
-        <v>678338.0364121292</v>
+        <v>678303.2984866931</v>
       </c>
       <c r="L6" t="n">
-        <v>678338.0364121289</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="M6" t="n">
-        <v>545730.7426832024</v>
+        <v>545696.0047577668</v>
       </c>
       <c r="N6" t="n">
-        <v>678338.0364121288</v>
+        <v>678303.2984866933</v>
       </c>
       <c r="O6" t="n">
-        <v>678338.0364121289</v>
+        <v>678303.2984866936</v>
       </c>
       <c r="P6" t="n">
-        <v>678338.0364121289</v>
+        <v>678303.2984866931</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,23 +26957,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241343</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>433.9106082241344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>238.8128242015474</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>64.89340308731852</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>136.2472557911519</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934602</v>
       </c>
       <c r="H5" t="n">
-        <v>186.5125943784938</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>94.547349484924</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,13 +27828,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>195.5290386501004</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>340.9210675957745</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>49.13905010621676</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>116.141969671021</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28852,10 +28852,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>362.5355639238086</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,16 +33497,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>361.1081696176612</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34208,19 +34208,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>367.7110102589294</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530502</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980272</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35267,7 +35267,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750462</v>
+        <v>505.5216991696258</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,16 +37145,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>222.5537898377871</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,19 +37856,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
